--- a/VerveStacks_AUS/vt_vervestacks_AUS_v1.xlsx
+++ b/VerveStacks_AUS/vt_vervestacks_AUS_v1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_AUS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B621DD8B-0AA5-4772-AE62-2AD6492F8A25}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{28FECEA2-EC9A-4F0D-BB88-8DA944E7E8B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{6DBEF337-55C3-46B3-895A-B6BF79CEC6B8}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{CFBCE5F7-36ED-4202-B405-620AAF314998}"/>
   </bookViews>
   <sheets>
     <sheet name="weo_pg" sheetId="3" r:id="rId1"/>
@@ -952,7 +952,7 @@
     <t>ep_wind_onshore_G100000927837</t>
   </si>
   <si>
-    <t>VERVESTACKS: the open USE platform. Powered by data | Guided by intuition | Built with AI.</t>
+    <t>VERVESTACKS - the open USE platform · Powered by data · Shaped by intuition · Accelerated with AI</t>
   </si>
   <si>
     <t>~fi_process</t>
@@ -2754,7 +2754,7 @@
     </font>
     <font>
       <b/>
-      <sz val="7"/>
+      <sz val="10"/>
       <color rgb="FFFFFFFF"/>
       <name val="Segoe UI"/>
       <family val="2"/>
@@ -3184,7 +3184,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E04AB302-1C9E-4A0E-9863-2211345D1676}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{77890C6B-4BE1-42F9-B5A4-6E3D2BCB979A}">
   <dimension ref="A1:Q107"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
@@ -6172,7 +6172,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F6187100-F1D8-4D00-8558-4DBE97657F72}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{56F23522-6F04-49AD-B120-8E5FC94EB833}">
   <dimension ref="A1:U140"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -13963,7 +13963,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CDDF59DC-9C60-4556-97BE-A1F8429CBB5B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{555E2EC2-751A-46CF-B029-8CAFF4B33B88}">
   <dimension ref="A1:T354"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>

--- a/VerveStacks_AUS/vt_vervestacks_AUS_v1.xlsx
+++ b/VerveStacks_AUS/vt_vervestacks_AUS_v1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_AUS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{28FECEA2-EC9A-4F0D-BB88-8DA944E7E8B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{708E1F36-0856-43F6-9D0D-646D615C9F41}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{CFBCE5F7-36ED-4202-B405-620AAF314998}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{FB3905EC-860D-43C6-AD5F-25C91FC074DB}"/>
   </bookViews>
   <sheets>
     <sheet name="weo_pg" sheetId="3" r:id="rId1"/>
@@ -2747,8 +2747,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <b/>
+      <sz val="8"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Segoe UI"/>
       <family val="2"/>
     </font>
@@ -2760,15 +2761,14 @@
       <family val="2"/>
     </font>
     <font>
-      <b/>
-      <sz val="12"/>
-      <color rgb="FFFFFFFF"/>
+      <sz val="9"/>
+      <color theme="1"/>
       <name val="Segoe UI"/>
       <family val="2"/>
     </font>
     <font>
       <i/>
-      <sz val="9"/>
+      <sz val="7"/>
       <color rgb="FF969696"/>
       <name val="Consolas"/>
       <family val="3"/>
@@ -2844,12 +2844,12 @@
   </cellStyleXfs>
   <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -3184,7 +3184,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{77890C6B-4BE1-42F9-B5A4-6E3D2BCB979A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C5FA30B4-A994-4127-BAAD-ECD1FEF810FD}">
   <dimension ref="A1:Q107"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
@@ -3192,15 +3192,13 @@
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="30.59765625" customWidth="1"/>
-    <col min="2" max="2" width="10.59765625" customWidth="1"/>
-    <col min="3" max="3" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="7" width="10.59765625" customWidth="1"/>
+    <col min="2" max="7" width="10.59765625" customWidth="1"/>
     <col min="11" max="11" width="10.59765625" customWidth="1"/>
     <col min="12" max="12" width="30.59765625" customWidth="1"/>
-    <col min="13" max="13" width="12.06640625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="13.86328125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="12.9296875" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.265625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.59765625" customWidth="1"/>
+    <col min="14" max="14" width="12" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="11.265625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="12.46484375" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="10.59765625" customWidth="1"/>
   </cols>
   <sheetData>
@@ -3233,7 +3231,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="3" spans="1:17" ht="19.149999999999999" thickBot="1" x14ac:dyDescent="0.75">
+    <row r="3" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
@@ -3277,7 +3275,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="4" spans="1:17" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A4" s="3" t="s">
         <v>866</v>
       </c>
@@ -3319,7 +3317,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="5" spans="1:17" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A5" s="4" t="s">
         <v>866</v>
       </c>
@@ -3361,7 +3359,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="6" spans="1:17" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A6" s="3" t="s">
         <v>866</v>
       </c>
@@ -3403,7 +3401,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="7" spans="1:17" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A7" s="4" t="s">
         <v>866</v>
       </c>
@@ -3445,7 +3443,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="8" spans="1:17" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A8" s="3" t="s">
         <v>866</v>
       </c>
@@ -3487,7 +3485,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="9" spans="1:17" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A9" s="4" t="s">
         <v>869</v>
       </c>
@@ -3529,7 +3527,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="10" spans="1:17" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A10" s="3" t="s">
         <v>869</v>
       </c>
@@ -3571,7 +3569,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="11" spans="1:17" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A11" s="4" t="s">
         <v>869</v>
       </c>
@@ -3613,7 +3611,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="12" spans="1:17" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A12" s="3" t="s">
         <v>869</v>
       </c>
@@ -3655,7 +3653,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="13" spans="1:17" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A13" s="4" t="s">
         <v>869</v>
       </c>
@@ -3697,7 +3695,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="14" spans="1:17" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A14" s="3" t="s">
         <v>870</v>
       </c>
@@ -3739,7 +3737,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="15" spans="1:17" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A15" s="4" t="s">
         <v>870</v>
       </c>
@@ -3781,7 +3779,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="16" spans="1:17" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A16" s="3" t="s">
         <v>870</v>
       </c>
@@ -3823,7 +3821,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="17" spans="1:17" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="17" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A17" s="4" t="s">
         <v>870</v>
       </c>
@@ -3865,7 +3863,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="18" spans="1:17" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="18" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A18" s="3" t="s">
         <v>870</v>
       </c>
@@ -3907,7 +3905,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="19" spans="1:17" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="19" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A19" s="4" t="s">
         <v>871</v>
       </c>
@@ -3949,7 +3947,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="20" spans="1:17" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="20" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A20" s="3" t="s">
         <v>871</v>
       </c>
@@ -3991,7 +3989,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="21" spans="1:17" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="21" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A21" s="4" t="s">
         <v>871</v>
       </c>
@@ -4033,7 +4031,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="22" spans="1:17" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="22" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A22" s="3" t="s">
         <v>871</v>
       </c>
@@ -4075,7 +4073,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="23" spans="1:17" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="23" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A23" s="4" t="s">
         <v>871</v>
       </c>
@@ -4117,7 +4115,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="24" spans="1:17" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="24" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A24" s="3" t="s">
         <v>872</v>
       </c>
@@ -4159,7 +4157,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="25" spans="1:17" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="25" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A25" s="4" t="s">
         <v>872</v>
       </c>
@@ -4201,7 +4199,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="26" spans="1:17" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="26" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A26" s="3" t="s">
         <v>872</v>
       </c>
@@ -4243,7 +4241,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="27" spans="1:17" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="27" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A27" s="4" t="s">
         <v>873</v>
       </c>
@@ -4285,7 +4283,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="28" spans="1:17" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="28" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A28" s="3" t="s">
         <v>873</v>
       </c>
@@ -4327,7 +4325,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="29" spans="1:17" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="29" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A29" s="4" t="s">
         <v>873</v>
       </c>
@@ -4369,7 +4367,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="30" spans="1:17" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="30" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A30" s="3" t="s">
         <v>874</v>
       </c>
@@ -4392,7 +4390,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="31" spans="1:17" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="31" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A31" s="4" t="s">
         <v>874</v>
       </c>
@@ -4415,7 +4413,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="32" spans="1:17" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="32" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A32" s="3" t="s">
         <v>874</v>
       </c>
@@ -4438,7 +4436,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="33" spans="1:7" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A33" s="4" t="s">
         <v>875</v>
       </c>
@@ -4461,7 +4459,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="34" spans="1:7" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A34" s="3" t="s">
         <v>875</v>
       </c>
@@ -4484,7 +4482,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="35" spans="1:7" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A35" s="4" t="s">
         <v>875</v>
       </c>
@@ -4507,7 +4505,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="36" spans="1:7" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A36" s="3" t="s">
         <v>876</v>
       </c>
@@ -4530,7 +4528,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="37" spans="1:7" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A37" s="4" t="s">
         <v>876</v>
       </c>
@@ -4553,7 +4551,7 @@
         <v>867</v>
       </c>
     </row>
-    <row r="38" spans="1:7" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A38" s="3" t="s">
         <v>876</v>
       </c>
@@ -4576,7 +4574,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="39" spans="1:7" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A39" s="4" t="s">
         <v>876</v>
       </c>
@@ -4599,7 +4597,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="40" spans="1:7" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A40" s="3" t="s">
         <v>876</v>
       </c>
@@ -4622,7 +4620,7 @@
         <v>868</v>
       </c>
     </row>
-    <row r="41" spans="1:7" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A41" s="4" t="s">
         <v>877</v>
       </c>
@@ -4645,7 +4643,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="42" spans="1:7" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A42" s="3" t="s">
         <v>877</v>
       </c>
@@ -4668,7 +4666,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="43" spans="1:7" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A43" s="4" t="s">
         <v>877</v>
       </c>
@@ -4691,7 +4689,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="44" spans="1:7" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A44" s="3" t="s">
         <v>879</v>
       </c>
@@ -4714,7 +4712,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="45" spans="1:7" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A45" s="4" t="s">
         <v>879</v>
       </c>
@@ -4737,7 +4735,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="46" spans="1:7" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A46" s="3" t="s">
         <v>879</v>
       </c>
@@ -4760,7 +4758,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="47" spans="1:7" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A47" s="4" t="s">
         <v>880</v>
       </c>
@@ -4783,7 +4781,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="48" spans="1:7" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A48" s="3" t="s">
         <v>880</v>
       </c>
@@ -4806,7 +4804,7 @@
         <v>867</v>
       </c>
     </row>
-    <row r="49" spans="1:7" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A49" s="4" t="s">
         <v>880</v>
       </c>
@@ -4829,7 +4827,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="50" spans="1:7" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A50" s="3" t="s">
         <v>880</v>
       </c>
@@ -4852,7 +4850,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="51" spans="1:7" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A51" s="4" t="s">
         <v>880</v>
       </c>
@@ -4875,7 +4873,7 @@
         <v>868</v>
       </c>
     </row>
-    <row r="52" spans="1:7" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A52" s="3" t="s">
         <v>882</v>
       </c>
@@ -4898,7 +4896,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="53" spans="1:7" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A53" s="4" t="s">
         <v>882</v>
       </c>
@@ -4921,7 +4919,7 @@
         <v>867</v>
       </c>
     </row>
-    <row r="54" spans="1:7" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A54" s="3" t="s">
         <v>882</v>
       </c>
@@ -4944,7 +4942,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="55" spans="1:7" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A55" s="4" t="s">
         <v>882</v>
       </c>
@@ -4967,7 +4965,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="56" spans="1:7" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A56" s="3" t="s">
         <v>882</v>
       </c>
@@ -4990,7 +4988,7 @@
         <v>868</v>
       </c>
     </row>
-    <row r="57" spans="1:7" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A57" s="4" t="s">
         <v>883</v>
       </c>
@@ -5013,7 +5011,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="58" spans="1:7" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A58" s="3" t="s">
         <v>883</v>
       </c>
@@ -5036,7 +5034,7 @@
         <v>867</v>
       </c>
     </row>
-    <row r="59" spans="1:7" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A59" s="4" t="s">
         <v>883</v>
       </c>
@@ -5059,7 +5057,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="60" spans="1:7" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A60" s="3" t="s">
         <v>883</v>
       </c>
@@ -5082,7 +5080,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="61" spans="1:7" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="61" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A61" s="4" t="s">
         <v>883</v>
       </c>
@@ -5105,7 +5103,7 @@
         <v>868</v>
       </c>
     </row>
-    <row r="62" spans="1:7" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="62" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A62" s="3" t="s">
         <v>884</v>
       </c>
@@ -5128,7 +5126,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="63" spans="1:7" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="63" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A63" s="4" t="s">
         <v>884</v>
       </c>
@@ -5151,7 +5149,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="64" spans="1:7" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="64" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A64" s="3" t="s">
         <v>884</v>
       </c>
@@ -5174,7 +5172,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="65" spans="1:7" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="65" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A65" s="4" t="s">
         <v>885</v>
       </c>
@@ -5197,7 +5195,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="66" spans="1:7" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="66" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A66" s="3" t="s">
         <v>885</v>
       </c>
@@ -5220,7 +5218,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="67" spans="1:7" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="67" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A67" s="4" t="s">
         <v>885</v>
       </c>
@@ -5243,7 +5241,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="68" spans="1:7" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="68" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A68" s="3" t="s">
         <v>886</v>
       </c>
@@ -5266,7 +5264,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="69" spans="1:7" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="69" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A69" s="4" t="s">
         <v>886</v>
       </c>
@@ -5289,7 +5287,7 @@
         <v>867</v>
       </c>
     </row>
-    <row r="70" spans="1:7" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="70" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A70" s="3" t="s">
         <v>886</v>
       </c>
@@ -5312,7 +5310,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="71" spans="1:7" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="71" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A71" s="4" t="s">
         <v>886</v>
       </c>
@@ -5335,7 +5333,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="72" spans="1:7" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="72" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A72" s="3" t="s">
         <v>886</v>
       </c>
@@ -5358,7 +5356,7 @@
         <v>868</v>
       </c>
     </row>
-    <row r="73" spans="1:7" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="73" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A73" s="4" t="s">
         <v>888</v>
       </c>
@@ -5381,7 +5379,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="74" spans="1:7" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="74" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A74" s="3" t="s">
         <v>888</v>
       </c>
@@ -5404,7 +5402,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="75" spans="1:7" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="75" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A75" s="4" t="s">
         <v>888</v>
       </c>
@@ -5427,7 +5425,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="76" spans="1:7" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="76" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A76" s="3" t="s">
         <v>890</v>
       </c>
@@ -5450,7 +5448,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="77" spans="1:7" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="77" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A77" s="4" t="s">
         <v>890</v>
       </c>
@@ -5473,7 +5471,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="78" spans="1:7" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="78" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A78" s="3" t="s">
         <v>890</v>
       </c>
@@ -5496,7 +5494,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="79" spans="1:7" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="79" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A79" s="4" t="s">
         <v>891</v>
       </c>
@@ -5519,7 +5517,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="80" spans="1:7" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="80" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A80" s="3" t="s">
         <v>891</v>
       </c>
@@ -5542,7 +5540,7 @@
         <v>867</v>
       </c>
     </row>
-    <row r="81" spans="1:7" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="81" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A81" s="4" t="s">
         <v>891</v>
       </c>
@@ -5565,7 +5563,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="82" spans="1:7" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="82" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A82" s="3" t="s">
         <v>891</v>
       </c>
@@ -5588,7 +5586,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="83" spans="1:7" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="83" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A83" s="4" t="s">
         <v>891</v>
       </c>
@@ -5611,7 +5609,7 @@
         <v>868</v>
       </c>
     </row>
-    <row r="84" spans="1:7" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="84" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A84" s="3" t="s">
         <v>892</v>
       </c>
@@ -5634,7 +5632,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="85" spans="1:7" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="85" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A85" s="4" t="s">
         <v>892</v>
       </c>
@@ -5657,7 +5655,7 @@
         <v>867</v>
       </c>
     </row>
-    <row r="86" spans="1:7" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="86" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A86" s="3" t="s">
         <v>892</v>
       </c>
@@ -5680,7 +5678,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="87" spans="1:7" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="87" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A87" s="4" t="s">
         <v>892</v>
       </c>
@@ -5703,7 +5701,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="88" spans="1:7" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="88" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A88" s="3" t="s">
         <v>892</v>
       </c>
@@ -5726,7 +5724,7 @@
         <v>868</v>
       </c>
     </row>
-    <row r="89" spans="1:7" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="89" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A89" s="4" t="s">
         <v>893</v>
       </c>
@@ -5749,7 +5747,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="90" spans="1:7" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="90" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A90" s="3" t="s">
         <v>893</v>
       </c>
@@ -5772,7 +5770,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="91" spans="1:7" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="91" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A91" s="4" t="s">
         <v>893</v>
       </c>
@@ -5795,7 +5793,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="92" spans="1:7" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="92" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A92" s="3" t="s">
         <v>894</v>
       </c>
@@ -5818,7 +5816,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="93" spans="1:7" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="93" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A93" s="4" t="s">
         <v>894</v>
       </c>
@@ -5841,7 +5839,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="94" spans="1:7" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="94" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A94" s="3" t="s">
         <v>894</v>
       </c>
@@ -5864,7 +5862,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="95" spans="1:7" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="95" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A95" s="4" t="s">
         <v>895</v>
       </c>
@@ -5887,7 +5885,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="96" spans="1:7" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="96" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A96" s="3" t="s">
         <v>895</v>
       </c>
@@ -5910,7 +5908,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="97" spans="1:7" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="97" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A97" s="4" t="s">
         <v>895</v>
       </c>
@@ -5933,7 +5931,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="98" spans="1:7" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="98" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A98" s="3" t="s">
         <v>896</v>
       </c>
@@ -5956,7 +5954,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="99" spans="1:7" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="99" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A99" s="4" t="s">
         <v>896</v>
       </c>
@@ -5979,7 +5977,7 @@
         <v>867</v>
       </c>
     </row>
-    <row r="100" spans="1:7" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="100" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A100" s="3" t="s">
         <v>896</v>
       </c>
@@ -6002,7 +6000,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="101" spans="1:7" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="101" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A101" s="4" t="s">
         <v>896</v>
       </c>
@@ -6025,7 +6023,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="102" spans="1:7" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="102" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A102" s="3" t="s">
         <v>896</v>
       </c>
@@ -6048,7 +6046,7 @@
         <v>868</v>
       </c>
     </row>
-    <row r="103" spans="1:7" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="103" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A103" s="4" t="s">
         <v>897</v>
       </c>
@@ -6071,7 +6069,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="104" spans="1:7" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="104" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A104" s="3" t="s">
         <v>897</v>
       </c>
@@ -6094,7 +6092,7 @@
         <v>867</v>
       </c>
     </row>
-    <row r="105" spans="1:7" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="105" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A105" s="4" t="s">
         <v>897</v>
       </c>
@@ -6117,7 +6115,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="106" spans="1:7" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="106" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A106" s="3" t="s">
         <v>897</v>
       </c>
@@ -6140,7 +6138,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="107" spans="1:7" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="107" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A107" s="4" t="s">
         <v>897</v>
       </c>
@@ -6172,7 +6170,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{56F23522-6F04-49AD-B120-8E5FC94EB833}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F69900E-6939-449C-9955-68D21C59005C}">
   <dimension ref="A1:U140"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -6180,16 +6178,14 @@
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="30.59765625" customWidth="1"/>
-    <col min="2" max="2" width="10.59765625" customWidth="1"/>
-    <col min="3" max="3" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="8" width="10.59765625" customWidth="1"/>
+    <col min="2" max="8" width="10.59765625" customWidth="1"/>
     <col min="9" max="9" width="30.59765625" customWidth="1"/>
     <col min="10" max="11" width="10.59765625" customWidth="1"/>
     <col min="15" max="15" width="10.59765625" customWidth="1"/>
     <col min="16" max="17" width="30.59765625" customWidth="1"/>
-    <col min="18" max="18" width="13.86328125" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="12.9296875" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.265625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="12" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="11.265625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="12.46484375" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="10.59765625" customWidth="1"/>
   </cols>
   <sheetData>
@@ -6226,7 +6222,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="3" spans="1:21" ht="19.149999999999999" thickBot="1" x14ac:dyDescent="0.75">
+    <row r="3" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
@@ -6282,7 +6278,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="4" spans="1:21" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="4" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A4" s="3" t="s">
         <v>595</v>
       </c>
@@ -6338,7 +6334,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="5" spans="1:21" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A5" s="4" t="s">
         <v>596</v>
       </c>
@@ -6394,7 +6390,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="6" spans="1:21" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A6" s="3" t="s">
         <v>597</v>
       </c>
@@ -6450,7 +6446,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="7" spans="1:21" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A7" s="4" t="s">
         <v>598</v>
       </c>
@@ -6506,7 +6502,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="8" spans="1:21" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A8" s="3" t="s">
         <v>599</v>
       </c>
@@ -6562,7 +6558,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="9" spans="1:21" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A9" s="4" t="s">
         <v>600</v>
       </c>
@@ -6618,7 +6614,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="10" spans="1:21" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A10" s="3" t="s">
         <v>601</v>
       </c>
@@ -6674,7 +6670,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="11" spans="1:21" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A11" s="4" t="s">
         <v>602</v>
       </c>
@@ -6730,7 +6726,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="12" spans="1:21" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="12" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A12" s="3" t="s">
         <v>603</v>
       </c>
@@ -6786,7 +6782,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="13" spans="1:21" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A13" s="4" t="s">
         <v>604</v>
       </c>
@@ -6842,7 +6838,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="14" spans="1:21" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="14" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A14" s="3" t="s">
         <v>605</v>
       </c>
@@ -6898,7 +6894,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="15" spans="1:21" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A15" s="4" t="s">
         <v>606</v>
       </c>
@@ -6954,7 +6950,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="16" spans="1:21" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="16" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A16" s="3" t="s">
         <v>607</v>
       </c>
@@ -7010,7 +7006,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="17" spans="1:21" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="17" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A17" s="4" t="s">
         <v>608</v>
       </c>
@@ -7066,7 +7062,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="18" spans="1:21" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="18" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A18" s="3" t="s">
         <v>609</v>
       </c>
@@ -7122,7 +7118,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="19" spans="1:21" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="19" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A19" s="4" t="s">
         <v>610</v>
       </c>
@@ -7178,7 +7174,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="20" spans="1:21" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="20" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A20" s="3" t="s">
         <v>611</v>
       </c>
@@ -7234,7 +7230,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="21" spans="1:21" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="21" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A21" s="4" t="s">
         <v>612</v>
       </c>
@@ -7290,7 +7286,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="22" spans="1:21" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="22" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A22" s="3" t="s">
         <v>613</v>
       </c>
@@ -7346,7 +7342,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="23" spans="1:21" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="23" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A23" s="4" t="s">
         <v>614</v>
       </c>
@@ -7402,7 +7398,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="24" spans="1:21" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="24" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A24" s="3" t="s">
         <v>615</v>
       </c>
@@ -7458,7 +7454,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="25" spans="1:21" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="25" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A25" s="4" t="s">
         <v>616</v>
       </c>
@@ -7514,7 +7510,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="26" spans="1:21" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="26" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A26" s="3" t="s">
         <v>617</v>
       </c>
@@ -7570,7 +7566,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="27" spans="1:21" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="27" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A27" s="4" t="s">
         <v>618</v>
       </c>
@@ -7626,7 +7622,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="28" spans="1:21" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="28" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A28" s="3" t="s">
         <v>619</v>
       </c>
@@ -7682,7 +7678,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="29" spans="1:21" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="29" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A29" s="4" t="s">
         <v>620</v>
       </c>
@@ -7738,7 +7734,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="30" spans="1:21" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="30" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A30" s="3" t="s">
         <v>621</v>
       </c>
@@ -7794,7 +7790,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="31" spans="1:21" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="31" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A31" s="4" t="s">
         <v>622</v>
       </c>
@@ -7850,7 +7846,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="32" spans="1:21" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="32" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A32" s="3" t="s">
         <v>623</v>
       </c>
@@ -7906,7 +7902,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="33" spans="1:21" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="33" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A33" s="4" t="s">
         <v>624</v>
       </c>
@@ -7962,7 +7958,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="34" spans="1:21" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="34" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A34" s="3" t="s">
         <v>625</v>
       </c>
@@ -8018,7 +8014,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="35" spans="1:21" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="35" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A35" s="4" t="s">
         <v>626</v>
       </c>
@@ -8074,7 +8070,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="36" spans="1:21" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="36" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A36" s="3" t="s">
         <v>627</v>
       </c>
@@ -8130,7 +8126,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="37" spans="1:21" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="37" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A37" s="4" t="s">
         <v>628</v>
       </c>
@@ -8186,7 +8182,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="38" spans="1:21" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="38" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A38" s="3" t="s">
         <v>629</v>
       </c>
@@ -8242,7 +8238,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="39" spans="1:21" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="39" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A39" s="4" t="s">
         <v>630</v>
       </c>
@@ -8298,7 +8294,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="40" spans="1:21" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="40" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A40" s="3" t="s">
         <v>631</v>
       </c>
@@ -8354,7 +8350,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="41" spans="1:21" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="41" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A41" s="4" t="s">
         <v>632</v>
       </c>
@@ -8410,7 +8406,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="42" spans="1:21" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="42" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A42" s="3" t="s">
         <v>633</v>
       </c>
@@ -8466,7 +8462,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="43" spans="1:21" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="43" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A43" s="4" t="s">
         <v>634</v>
       </c>
@@ -8522,7 +8518,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="44" spans="1:21" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="44" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A44" s="3" t="s">
         <v>635</v>
       </c>
@@ -8578,7 +8574,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="45" spans="1:21" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="45" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A45" s="4" t="s">
         <v>636</v>
       </c>
@@ -8634,7 +8630,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="46" spans="1:21" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="46" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A46" s="3" t="s">
         <v>637</v>
       </c>
@@ -8690,7 +8686,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="47" spans="1:21" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="47" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A47" s="4" t="s">
         <v>638</v>
       </c>
@@ -8746,7 +8742,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="48" spans="1:21" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="48" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A48" s="3" t="s">
         <v>639</v>
       </c>
@@ -8802,7 +8798,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="49" spans="1:21" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="49" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A49" s="4" t="s">
         <v>640</v>
       </c>
@@ -8858,7 +8854,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="50" spans="1:21" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="50" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A50" s="3" t="s">
         <v>641</v>
       </c>
@@ -8914,7 +8910,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="51" spans="1:21" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="51" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A51" s="4" t="s">
         <v>642</v>
       </c>
@@ -8970,7 +8966,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="52" spans="1:21" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="52" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A52" s="3" t="s">
         <v>643</v>
       </c>
@@ -9026,7 +9022,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="53" spans="1:21" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="53" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A53" s="4" t="s">
         <v>644</v>
       </c>
@@ -9082,7 +9078,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="54" spans="1:21" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="54" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A54" s="3" t="s">
         <v>645</v>
       </c>
@@ -9138,7 +9134,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="55" spans="1:21" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="55" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A55" s="4" t="s">
         <v>646</v>
       </c>
@@ -9194,7 +9190,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="56" spans="1:21" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="56" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A56" s="3" t="s">
         <v>647</v>
       </c>
@@ -9250,7 +9246,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="57" spans="1:21" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="57" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A57" s="4" t="s">
         <v>648</v>
       </c>
@@ -9306,7 +9302,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="58" spans="1:21" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="58" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A58" s="3" t="s">
         <v>649</v>
       </c>
@@ -9362,7 +9358,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="59" spans="1:21" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="59" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A59" s="4" t="s">
         <v>650</v>
       </c>
@@ -9418,7 +9414,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="60" spans="1:21" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="60" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A60" s="3" t="s">
         <v>651</v>
       </c>
@@ -9474,7 +9470,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="61" spans="1:21" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="61" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A61" s="4" t="s">
         <v>652</v>
       </c>
@@ -9530,7 +9526,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="62" spans="1:21" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="62" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A62" s="3" t="s">
         <v>653</v>
       </c>
@@ -9586,7 +9582,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="63" spans="1:21" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="63" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A63" s="4" t="s">
         <v>654</v>
       </c>
@@ -9642,7 +9638,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="64" spans="1:21" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="64" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A64" s="3" t="s">
         <v>655</v>
       </c>
@@ -9698,7 +9694,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="65" spans="1:21" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="65" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A65" s="4" t="s">
         <v>656</v>
       </c>
@@ -9754,7 +9750,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="66" spans="1:21" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="66" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A66" s="3" t="s">
         <v>657</v>
       </c>
@@ -9810,7 +9806,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="67" spans="1:21" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="67" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A67" s="4" t="s">
         <v>658</v>
       </c>
@@ -9866,7 +9862,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="68" spans="1:21" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="68" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A68" s="3" t="s">
         <v>659</v>
       </c>
@@ -9922,7 +9918,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="69" spans="1:21" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="69" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A69" s="4" t="s">
         <v>660</v>
       </c>
@@ -9978,7 +9974,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="70" spans="1:21" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="70" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A70" s="3" t="s">
         <v>661</v>
       </c>
@@ -10034,7 +10030,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="71" spans="1:21" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="71" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A71" s="4" t="s">
         <v>662</v>
       </c>
@@ -10090,7 +10086,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="72" spans="1:21" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="72" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A72" s="3" t="s">
         <v>663</v>
       </c>
@@ -10146,7 +10142,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="73" spans="1:21" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="73" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A73" s="4" t="s">
         <v>664</v>
       </c>
@@ -10202,7 +10198,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="74" spans="1:21" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="74" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A74" s="3" t="s">
         <v>665</v>
       </c>
@@ -10258,7 +10254,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="75" spans="1:21" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="75" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A75" s="4" t="s">
         <v>666</v>
       </c>
@@ -10314,7 +10310,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="76" spans="1:21" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="76" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A76" s="3" t="s">
         <v>667</v>
       </c>
@@ -10370,7 +10366,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="77" spans="1:21" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="77" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A77" s="4" t="s">
         <v>668</v>
       </c>
@@ -10426,7 +10422,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="78" spans="1:21" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="78" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A78" s="3" t="s">
         <v>669</v>
       </c>
@@ -10482,7 +10478,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="79" spans="1:21" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="79" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A79" s="4" t="s">
         <v>670</v>
       </c>
@@ -10538,7 +10534,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="80" spans="1:21" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="80" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A80" s="3" t="s">
         <v>671</v>
       </c>
@@ -10594,7 +10590,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="81" spans="1:21" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="81" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A81" s="4" t="s">
         <v>672</v>
       </c>
@@ -10650,7 +10646,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="82" spans="1:21" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="82" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A82" s="3" t="s">
         <v>673</v>
       </c>
@@ -10706,7 +10702,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="83" spans="1:21" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="83" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A83" s="4" t="s">
         <v>674</v>
       </c>
@@ -10762,7 +10758,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="84" spans="1:21" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="84" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A84" s="3" t="s">
         <v>675</v>
       </c>
@@ -10818,7 +10814,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="85" spans="1:21" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="85" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A85" s="4" t="s">
         <v>676</v>
       </c>
@@ -10874,7 +10870,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="86" spans="1:21" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="86" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A86" s="3" t="s">
         <v>677</v>
       </c>
@@ -10930,7 +10926,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="87" spans="1:21" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="87" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A87" s="4" t="s">
         <v>678</v>
       </c>
@@ -10986,7 +10982,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="88" spans="1:21" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="88" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A88" s="3" t="s">
         <v>679</v>
       </c>
@@ -11042,7 +11038,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="89" spans="1:21" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="89" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A89" s="4" t="s">
         <v>680</v>
       </c>
@@ -11098,7 +11094,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="90" spans="1:21" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="90" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A90" s="3" t="s">
         <v>681</v>
       </c>
@@ -11154,7 +11150,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="91" spans="1:21" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="91" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A91" s="4" t="s">
         <v>682</v>
       </c>
@@ -11210,7 +11206,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="92" spans="1:21" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="92" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A92" s="3" t="s">
         <v>683</v>
       </c>
@@ -11266,7 +11262,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="93" spans="1:21" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="93" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A93" s="4" t="s">
         <v>684</v>
       </c>
@@ -11322,7 +11318,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="94" spans="1:21" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="94" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A94" s="3" t="s">
         <v>685</v>
       </c>
@@ -11378,7 +11374,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="95" spans="1:21" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="95" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A95" s="4" t="s">
         <v>686</v>
       </c>
@@ -11434,7 +11430,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="96" spans="1:21" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="96" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A96" s="3" t="s">
         <v>687</v>
       </c>
@@ -11490,7 +11486,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="97" spans="1:21" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="97" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A97" s="4" t="s">
         <v>688</v>
       </c>
@@ -11546,7 +11542,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="98" spans="1:21" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="98" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A98" s="3" t="s">
         <v>689</v>
       </c>
@@ -11602,7 +11598,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="99" spans="1:21" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="99" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A99" s="4" t="s">
         <v>690</v>
       </c>
@@ -11658,7 +11654,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="100" spans="1:21" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="100" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A100" s="3" t="s">
         <v>691</v>
       </c>
@@ -11714,7 +11710,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="101" spans="1:21" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="101" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A101" s="4" t="s">
         <v>692</v>
       </c>
@@ -11770,7 +11766,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="102" spans="1:21" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="102" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A102" s="3" t="s">
         <v>693</v>
       </c>
@@ -11826,7 +11822,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="103" spans="1:21" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="103" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A103" s="4" t="s">
         <v>694</v>
       </c>
@@ -11882,7 +11878,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="104" spans="1:21" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="104" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A104" s="3" t="s">
         <v>695</v>
       </c>
@@ -11938,7 +11934,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="105" spans="1:21" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="105" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A105" s="4" t="s">
         <v>696</v>
       </c>
@@ -11994,7 +11990,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="106" spans="1:21" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="106" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A106" s="3" t="s">
         <v>697</v>
       </c>
@@ -12050,7 +12046,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="107" spans="1:21" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="107" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A107" s="4" t="s">
         <v>698</v>
       </c>
@@ -12106,7 +12102,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="108" spans="1:21" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="108" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A108" s="3" t="s">
         <v>699</v>
       </c>
@@ -12162,7 +12158,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="109" spans="1:21" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="109" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A109" s="4" t="s">
         <v>700</v>
       </c>
@@ -12218,7 +12214,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="110" spans="1:21" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="110" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A110" s="3" t="s">
         <v>701</v>
       </c>
@@ -12274,7 +12270,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="111" spans="1:21" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="111" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A111" s="4" t="s">
         <v>702</v>
       </c>
@@ -12330,7 +12326,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="112" spans="1:21" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="112" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A112" s="3" t="s">
         <v>703</v>
       </c>
@@ -12386,7 +12382,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="113" spans="1:21" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="113" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A113" s="4" t="s">
         <v>704</v>
       </c>
@@ -12442,7 +12438,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="114" spans="1:21" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="114" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A114" s="3" t="s">
         <v>705</v>
       </c>
@@ -12498,7 +12494,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="115" spans="1:21" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="115" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A115" s="4" t="s">
         <v>706</v>
       </c>
@@ -12554,7 +12550,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="116" spans="1:21" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="116" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A116" s="3" t="s">
         <v>707</v>
       </c>
@@ -12610,7 +12606,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="117" spans="1:21" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="117" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A117" s="4" t="s">
         <v>708</v>
       </c>
@@ -12666,7 +12662,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="118" spans="1:21" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="118" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A118" s="3" t="s">
         <v>709</v>
       </c>
@@ -12722,7 +12718,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="119" spans="1:21" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="119" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A119" s="4" t="s">
         <v>710</v>
       </c>
@@ -12778,7 +12774,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="120" spans="1:21" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="120" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A120" s="3" t="s">
         <v>711</v>
       </c>
@@ -12834,7 +12830,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="121" spans="1:21" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="121" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A121" s="4" t="s">
         <v>712</v>
       </c>
@@ -12890,7 +12886,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="122" spans="1:21" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="122" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A122" s="3" t="s">
         <v>713</v>
       </c>
@@ -12946,7 +12942,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="123" spans="1:21" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="123" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A123" s="4" t="s">
         <v>714</v>
       </c>
@@ -13002,7 +12998,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="124" spans="1:21" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="124" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A124" s="3" t="s">
         <v>715</v>
       </c>
@@ -13058,7 +13054,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="125" spans="1:21" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="125" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A125" s="4" t="s">
         <v>716</v>
       </c>
@@ -13114,7 +13110,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="126" spans="1:21" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="126" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A126" s="3" t="s">
         <v>717</v>
       </c>
@@ -13170,7 +13166,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="127" spans="1:21" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="127" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A127" s="4" t="s">
         <v>718</v>
       </c>
@@ -13226,7 +13222,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="128" spans="1:21" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="128" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A128" s="3" t="s">
         <v>719</v>
       </c>
@@ -13282,7 +13278,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="129" spans="1:21" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="129" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A129" s="4" t="s">
         <v>720</v>
       </c>
@@ -13338,7 +13334,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="130" spans="1:21" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="130" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A130" s="3" t="s">
         <v>721</v>
       </c>
@@ -13394,7 +13390,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="131" spans="1:21" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="131" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A131" s="4" t="s">
         <v>722</v>
       </c>
@@ -13450,7 +13446,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="132" spans="1:21" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="132" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A132" s="3" t="s">
         <v>723</v>
       </c>
@@ -13506,7 +13502,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="133" spans="1:21" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="133" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A133" s="4" t="s">
         <v>724</v>
       </c>
@@ -13562,7 +13558,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="134" spans="1:21" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="134" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A134" s="3" t="s">
         <v>725</v>
       </c>
@@ -13618,7 +13614,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="135" spans="1:21" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="135" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A135" s="4" t="s">
         <v>726</v>
       </c>
@@ -13674,7 +13670,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="136" spans="1:21" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="136" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A136" s="3" t="s">
         <v>727</v>
       </c>
@@ -13730,7 +13726,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="137" spans="1:21" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="137" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A137" s="4" t="s">
         <v>728</v>
       </c>
@@ -13786,7 +13782,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="138" spans="1:21" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="138" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A138" s="3" t="s">
         <v>729</v>
       </c>
@@ -13842,7 +13838,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="139" spans="1:21" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="139" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A139" s="4" t="s">
         <v>730</v>
       </c>
@@ -13898,7 +13894,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="140" spans="1:21" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="140" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A140" s="3" t="s">
         <v>731</v>
       </c>
@@ -13963,7 +13959,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{555E2EC2-751A-46CF-B029-8CAFF4B33B88}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7E208469-62B2-4B31-8574-A57C315C5140}">
   <dimension ref="A1:T354"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -13971,18 +13967,12 @@
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="30.59765625" customWidth="1"/>
-    <col min="2" max="2" width="10.59765625" customWidth="1"/>
-    <col min="3" max="3" width="12.3984375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.59765625" customWidth="1"/>
-    <col min="5" max="5" width="11.265625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.59765625" customWidth="1"/>
-    <col min="7" max="9" width="12.46484375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.59765625" customWidth="1"/>
+    <col min="2" max="10" width="10.59765625" customWidth="1"/>
     <col min="14" max="14" width="10.59765625" customWidth="1"/>
     <col min="15" max="16" width="30.59765625" customWidth="1"/>
-    <col min="17" max="17" width="13.86328125" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="12.9296875" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.265625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="12" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="11.265625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="12.46484375" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="10.59765625" customWidth="1"/>
   </cols>
   <sheetData>
@@ -14018,7 +14008,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="3" spans="1:20" ht="19.149999999999999" thickBot="1" x14ac:dyDescent="0.75">
+    <row r="3" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
@@ -14071,7 +14061,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="4" spans="1:20" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A4" s="3" t="s">
         <v>11</v>
       </c>
@@ -14124,7 +14114,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="5" spans="1:20" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A5" s="4" t="s">
         <v>11</v>
       </c>
@@ -14177,7 +14167,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="6" spans="1:20" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A6" s="3" t="s">
         <v>11</v>
       </c>
@@ -14230,7 +14220,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="7" spans="1:20" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A7" s="4" t="s">
         <v>11</v>
       </c>
@@ -14283,7 +14273,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="8" spans="1:20" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A8" s="3" t="s">
         <v>11</v>
       </c>
@@ -14336,7 +14326,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="9" spans="1:20" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A9" s="4" t="s">
         <v>11</v>
       </c>
@@ -14389,7 +14379,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="10" spans="1:20" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A10" s="3" t="s">
         <v>11</v>
       </c>
@@ -14442,7 +14432,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="11" spans="1:20" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A11" s="4" t="s">
         <v>14</v>
       </c>
@@ -14495,7 +14485,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="12" spans="1:20" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="12" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A12" s="3" t="s">
         <v>15</v>
       </c>
@@ -14548,7 +14538,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="13" spans="1:20" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="13" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A13" s="4" t="s">
         <v>17</v>
       </c>
@@ -14601,7 +14591,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="14" spans="1:20" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="14" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A14" s="3" t="s">
         <v>18</v>
       </c>
@@ -14654,7 +14644,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="15" spans="1:20" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="15" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A15" s="4" t="s">
         <v>19</v>
       </c>
@@ -14707,7 +14697,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="16" spans="1:20" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="16" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A16" s="3" t="s">
         <v>20</v>
       </c>
@@ -14760,7 +14750,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="17" spans="1:20" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="17" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A17" s="4" t="s">
         <v>21</v>
       </c>
@@ -14813,7 +14803,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="18" spans="1:20" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="18" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A18" s="3" t="s">
         <v>22</v>
       </c>
@@ -14866,7 +14856,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="19" spans="1:20" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="19" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A19" s="4" t="s">
         <v>23</v>
       </c>
@@ -14919,7 +14909,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="20" spans="1:20" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="20" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A20" s="3" t="s">
         <v>24</v>
       </c>
@@ -14972,7 +14962,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="21" spans="1:20" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="21" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A21" s="4" t="s">
         <v>25</v>
       </c>
@@ -15025,7 +15015,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="22" spans="1:20" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="22" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A22" s="3" t="s">
         <v>26</v>
       </c>
@@ -15078,7 +15068,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="23" spans="1:20" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="23" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A23" s="4" t="s">
         <v>27</v>
       </c>
@@ -15131,7 +15121,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="24" spans="1:20" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="24" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A24" s="3" t="s">
         <v>28</v>
       </c>
@@ -15184,7 +15174,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="25" spans="1:20" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="25" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A25" s="4" t="s">
         <v>29</v>
       </c>
@@ -15237,7 +15227,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="26" spans="1:20" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="26" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A26" s="3" t="s">
         <v>30</v>
       </c>
@@ -15290,7 +15280,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="27" spans="1:20" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="27" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A27" s="4" t="s">
         <v>31</v>
       </c>
@@ -15343,7 +15333,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="28" spans="1:20" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="28" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A28" s="3" t="s">
         <v>32</v>
       </c>
@@ -15396,7 +15386,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="29" spans="1:20" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="29" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A29" s="4" t="s">
         <v>33</v>
       </c>
@@ -15449,7 +15439,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="30" spans="1:20" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="30" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A30" s="3" t="s">
         <v>34</v>
       </c>
@@ -15502,7 +15492,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="31" spans="1:20" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="31" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A31" s="4" t="s">
         <v>35</v>
       </c>
@@ -15555,7 +15545,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="32" spans="1:20" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="32" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A32" s="3" t="s">
         <v>36</v>
       </c>
@@ -15608,7 +15598,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="33" spans="1:20" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="33" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A33" s="4" t="s">
         <v>37</v>
       </c>
@@ -15661,7 +15651,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="34" spans="1:20" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="34" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A34" s="3" t="s">
         <v>38</v>
       </c>
@@ -15714,7 +15704,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="35" spans="1:20" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="35" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A35" s="4" t="s">
         <v>39</v>
       </c>
@@ -15767,7 +15757,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="36" spans="1:20" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="36" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A36" s="3" t="s">
         <v>40</v>
       </c>
@@ -15820,7 +15810,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="37" spans="1:20" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="37" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A37" s="4" t="s">
         <v>41</v>
       </c>
@@ -15873,7 +15863,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="38" spans="1:20" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="38" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A38" s="3" t="s">
         <v>42</v>
       </c>
@@ -15926,7 +15916,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="39" spans="1:20" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="39" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A39" s="4" t="s">
         <v>43</v>
       </c>
@@ -15979,7 +15969,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="40" spans="1:20" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="40" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A40" s="3" t="s">
         <v>44</v>
       </c>
@@ -16032,7 +16022,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="41" spans="1:20" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="41" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A41" s="4" t="s">
         <v>45</v>
       </c>
@@ -16085,7 +16075,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="42" spans="1:20" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="42" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A42" s="3" t="s">
         <v>46</v>
       </c>
@@ -16138,7 +16128,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="43" spans="1:20" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="43" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A43" s="4" t="s">
         <v>47</v>
       </c>
@@ -16191,7 +16181,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="44" spans="1:20" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="44" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A44" s="3" t="s">
         <v>48</v>
       </c>
@@ -16244,7 +16234,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="45" spans="1:20" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="45" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A45" s="4" t="s">
         <v>49</v>
       </c>
@@ -16297,7 +16287,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="46" spans="1:20" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="46" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A46" s="3" t="s">
         <v>50</v>
       </c>
@@ -16350,7 +16340,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="47" spans="1:20" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="47" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A47" s="4" t="s">
         <v>51</v>
       </c>
@@ -16403,7 +16393,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="48" spans="1:20" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="48" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A48" s="3" t="s">
         <v>52</v>
       </c>
@@ -16456,7 +16446,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="49" spans="1:20" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="49" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A49" s="4" t="s">
         <v>53</v>
       </c>
@@ -16509,7 +16499,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="50" spans="1:20" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="50" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A50" s="3" t="s">
         <v>54</v>
       </c>
@@ -16562,7 +16552,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="51" spans="1:20" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="51" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A51" s="4" t="s">
         <v>55</v>
       </c>
@@ -16615,7 +16605,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="52" spans="1:20" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="52" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A52" s="3" t="s">
         <v>56</v>
       </c>
@@ -16668,7 +16658,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="53" spans="1:20" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="53" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A53" s="4" t="s">
         <v>57</v>
       </c>
@@ -16721,7 +16711,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="54" spans="1:20" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="54" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A54" s="3" t="s">
         <v>58</v>
       </c>
@@ -16774,7 +16764,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="55" spans="1:20" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="55" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A55" s="4" t="s">
         <v>59</v>
       </c>
@@ -16827,7 +16817,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="56" spans="1:20" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="56" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A56" s="3" t="s">
         <v>60</v>
       </c>
@@ -16880,7 +16870,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="57" spans="1:20" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="57" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A57" s="4" t="s">
         <v>61</v>
       </c>
@@ -16933,7 +16923,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="58" spans="1:20" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="58" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A58" s="3" t="s">
         <v>62</v>
       </c>
@@ -16986,7 +16976,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="59" spans="1:20" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="59" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A59" s="4" t="s">
         <v>63</v>
       </c>
@@ -17039,7 +17029,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="60" spans="1:20" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="60" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A60" s="3" t="s">
         <v>64</v>
       </c>
@@ -17092,7 +17082,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="61" spans="1:20" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="61" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A61" s="4" t="s">
         <v>65</v>
       </c>
@@ -17145,7 +17135,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="62" spans="1:20" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="62" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A62" s="3" t="s">
         <v>66</v>
       </c>
@@ -17198,7 +17188,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="63" spans="1:20" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="63" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A63" s="4" t="s">
         <v>67</v>
       </c>
@@ -17251,7 +17241,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="64" spans="1:20" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="64" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A64" s="3" t="s">
         <v>68</v>
       </c>
@@ -17304,7 +17294,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="65" spans="1:20" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="65" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A65" s="4" t="s">
         <v>69</v>
       </c>
@@ -17357,7 +17347,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="66" spans="1:20" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="66" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A66" s="3" t="s">
         <v>71</v>
       </c>
@@ -17410,7 +17400,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="67" spans="1:20" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="67" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A67" s="4" t="s">
         <v>72</v>
       </c>
@@ -17463,7 +17453,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="68" spans="1:20" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="68" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A68" s="3" t="s">
         <v>73</v>
       </c>
@@ -17516,7 +17506,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="69" spans="1:20" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="69" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A69" s="4" t="s">
         <v>74</v>
       </c>
@@ -17569,7 +17559,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="70" spans="1:20" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="70" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A70" s="3" t="s">
         <v>75</v>
       </c>
@@ -17622,7 +17612,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="71" spans="1:20" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="71" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A71" s="4" t="s">
         <v>76</v>
       </c>
@@ -17675,7 +17665,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="72" spans="1:20" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="72" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A72" s="3" t="s">
         <v>77</v>
       </c>
@@ -17728,7 +17718,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="73" spans="1:20" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="73" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A73" s="4" t="s">
         <v>78</v>
       </c>
@@ -17781,7 +17771,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="74" spans="1:20" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="74" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A74" s="3" t="s">
         <v>79</v>
       </c>
@@ -17834,7 +17824,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="75" spans="1:20" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="75" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A75" s="4" t="s">
         <v>80</v>
       </c>
@@ -17887,7 +17877,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="76" spans="1:20" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="76" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A76" s="3" t="s">
         <v>81</v>
       </c>
@@ -17940,7 +17930,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="77" spans="1:20" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="77" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A77" s="4" t="s">
         <v>82</v>
       </c>
@@ -17993,7 +17983,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="78" spans="1:20" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="78" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A78" s="3" t="s">
         <v>83</v>
       </c>
@@ -18046,7 +18036,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="79" spans="1:20" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="79" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A79" s="4" t="s">
         <v>84</v>
       </c>
@@ -18099,7 +18089,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="80" spans="1:20" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="80" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A80" s="3" t="s">
         <v>85</v>
       </c>
@@ -18152,7 +18142,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="81" spans="1:20" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="81" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A81" s="4" t="s">
         <v>86</v>
       </c>
@@ -18205,7 +18195,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="82" spans="1:20" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="82" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A82" s="3" t="s">
         <v>87</v>
       </c>
@@ -18258,7 +18248,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="83" spans="1:20" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="83" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A83" s="4" t="s">
         <v>88</v>
       </c>
@@ -18311,7 +18301,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="84" spans="1:20" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="84" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A84" s="3" t="s">
         <v>89</v>
       </c>
@@ -18364,7 +18354,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="85" spans="1:20" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="85" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A85" s="4" t="s">
         <v>90</v>
       </c>
@@ -18417,7 +18407,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="86" spans="1:20" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="86" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A86" s="3" t="s">
         <v>91</v>
       </c>
@@ -18470,7 +18460,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="87" spans="1:20" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="87" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A87" s="4" t="s">
         <v>92</v>
       </c>
@@ -18523,7 +18513,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="88" spans="1:20" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="88" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A88" s="3" t="s">
         <v>93</v>
       </c>
@@ -18576,7 +18566,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="89" spans="1:20" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="89" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A89" s="4" t="s">
         <v>94</v>
       </c>
@@ -18629,7 +18619,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="90" spans="1:20" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="90" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A90" s="3" t="s">
         <v>95</v>
       </c>
@@ -18682,7 +18672,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="91" spans="1:20" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="91" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A91" s="4" t="s">
         <v>96</v>
       </c>
@@ -18735,7 +18725,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="92" spans="1:20" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="92" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A92" s="3" t="s">
         <v>97</v>
       </c>
@@ -18788,7 +18778,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="93" spans="1:20" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="93" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A93" s="4" t="s">
         <v>98</v>
       </c>
@@ -18841,7 +18831,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="94" spans="1:20" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="94" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A94" s="3" t="s">
         <v>98</v>
       </c>
@@ -18894,7 +18884,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="95" spans="1:20" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="95" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A95" s="4" t="s">
         <v>98</v>
       </c>
@@ -18947,7 +18937,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="96" spans="1:20" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="96" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A96" s="3" t="s">
         <v>98</v>
       </c>
@@ -19000,7 +18990,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="97" spans="1:20" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="97" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A97" s="4" t="s">
         <v>98</v>
       </c>
@@ -19053,7 +19043,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="98" spans="1:20" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="98" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A98" s="3" t="s">
         <v>98</v>
       </c>
@@ -19106,7 +19096,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="99" spans="1:20" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="99" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A99" s="4" t="s">
         <v>98</v>
       </c>
@@ -19159,7 +19149,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="100" spans="1:20" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="100" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A100" s="3" t="s">
         <v>98</v>
       </c>
@@ -19212,7 +19202,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="101" spans="1:20" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="101" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A101" s="4" t="s">
         <v>98</v>
       </c>
@@ -19265,7 +19255,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="102" spans="1:20" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="102" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A102" s="3" t="s">
         <v>98</v>
       </c>
@@ -19318,7 +19308,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="103" spans="1:20" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="103" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A103" s="4" t="s">
         <v>98</v>
       </c>
@@ -19371,7 +19361,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="104" spans="1:20" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="104" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A104" s="3" t="s">
         <v>99</v>
       </c>
@@ -19424,7 +19414,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="105" spans="1:20" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="105" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A105" s="4" t="s">
         <v>100</v>
       </c>
@@ -19477,7 +19467,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="106" spans="1:20" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="106" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A106" s="3" t="s">
         <v>101</v>
       </c>
@@ -19530,7 +19520,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="107" spans="1:20" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="107" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A107" s="4" t="s">
         <v>102</v>
       </c>
@@ -19583,7 +19573,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="108" spans="1:20" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="108" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A108" s="3" t="s">
         <v>103</v>
       </c>
@@ -19636,7 +19626,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="109" spans="1:20" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="109" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A109" s="4" t="s">
         <v>104</v>
       </c>
@@ -19689,7 +19679,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="110" spans="1:20" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="110" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A110" s="3" t="s">
         <v>105</v>
       </c>
@@ -19742,7 +19732,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="111" spans="1:20" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="111" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A111" s="4" t="s">
         <v>106</v>
       </c>
@@ -19795,7 +19785,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="112" spans="1:20" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="112" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A112" s="3" t="s">
         <v>107</v>
       </c>
@@ -19848,7 +19838,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="113" spans="1:20" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="113" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A113" s="4" t="s">
         <v>108</v>
       </c>
@@ -19901,7 +19891,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="114" spans="1:20" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="114" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A114" s="3" t="s">
         <v>109</v>
       </c>
@@ -19954,7 +19944,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="115" spans="1:20" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="115" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A115" s="4" t="s">
         <v>110</v>
       </c>
@@ -20007,7 +19997,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="116" spans="1:20" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="116" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A116" s="3" t="s">
         <v>111</v>
       </c>
@@ -20060,7 +20050,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="117" spans="1:20" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="117" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A117" s="4" t="s">
         <v>112</v>
       </c>
@@ -20113,7 +20103,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="118" spans="1:20" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="118" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A118" s="3" t="s">
         <v>113</v>
       </c>
@@ -20166,7 +20156,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="119" spans="1:20" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="119" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A119" s="4" t="s">
         <v>114</v>
       </c>
@@ -20219,7 +20209,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="120" spans="1:20" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="120" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A120" s="3" t="s">
         <v>115</v>
       </c>
@@ -20272,7 +20262,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="121" spans="1:20" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="121" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A121" s="4" t="s">
         <v>116</v>
       </c>
@@ -20325,7 +20315,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="122" spans="1:20" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="122" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A122" s="3" t="s">
         <v>117</v>
       </c>
@@ -20378,7 +20368,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="123" spans="1:20" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="123" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A123" s="4" t="s">
         <v>118</v>
       </c>
@@ -20431,7 +20421,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="124" spans="1:20" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="124" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A124" s="3" t="s">
         <v>119</v>
       </c>
@@ -20484,7 +20474,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="125" spans="1:20" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="125" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A125" s="4" t="s">
         <v>120</v>
       </c>
@@ -20537,7 +20527,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="126" spans="1:20" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="126" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A126" s="3" t="s">
         <v>121</v>
       </c>
@@ -20590,7 +20580,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="127" spans="1:20" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="127" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A127" s="4" t="s">
         <v>122</v>
       </c>
@@ -20643,7 +20633,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="128" spans="1:20" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="128" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A128" s="3" t="s">
         <v>123</v>
       </c>
@@ -20696,7 +20686,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="129" spans="1:20" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="129" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A129" s="4" t="s">
         <v>124</v>
       </c>
@@ -20749,7 +20739,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="130" spans="1:20" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="130" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A130" s="3" t="s">
         <v>125</v>
       </c>
@@ -20802,7 +20792,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="131" spans="1:20" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="131" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A131" s="4" t="s">
         <v>126</v>
       </c>
@@ -20855,7 +20845,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="132" spans="1:20" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="132" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A132" s="3" t="s">
         <v>127</v>
       </c>
@@ -20908,7 +20898,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="133" spans="1:20" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="133" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A133" s="4" t="s">
         <v>128</v>
       </c>
@@ -20961,7 +20951,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="134" spans="1:20" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="134" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A134" s="3" t="s">
         <v>129</v>
       </c>
@@ -21014,7 +21004,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="135" spans="1:20" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="135" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A135" s="4" t="s">
         <v>130</v>
       </c>
@@ -21067,7 +21057,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="136" spans="1:20" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="136" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A136" s="3" t="s">
         <v>131</v>
       </c>
@@ -21120,7 +21110,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="137" spans="1:20" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="137" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A137" s="4" t="s">
         <v>132</v>
       </c>
@@ -21173,7 +21163,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="138" spans="1:20" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="138" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A138" s="3" t="s">
         <v>133</v>
       </c>
@@ -21226,7 +21216,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="139" spans="1:20" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="139" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A139" s="4" t="s">
         <v>134</v>
       </c>
@@ -21279,7 +21269,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="140" spans="1:20" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="140" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A140" s="3" t="s">
         <v>135</v>
       </c>
@@ -21332,7 +21322,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="141" spans="1:20" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="141" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A141" s="4" t="s">
         <v>136</v>
       </c>
@@ -21385,7 +21375,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="142" spans="1:20" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="142" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A142" s="3" t="s">
         <v>137</v>
       </c>
@@ -21438,7 +21428,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="143" spans="1:20" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="143" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A143" s="4" t="s">
         <v>138</v>
       </c>
@@ -21491,7 +21481,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="144" spans="1:20" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="144" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A144" s="3" t="s">
         <v>139</v>
       </c>
@@ -21544,7 +21534,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="145" spans="1:20" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="145" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A145" s="4" t="s">
         <v>140</v>
       </c>
@@ -21597,7 +21587,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="146" spans="1:20" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="146" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A146" s="3" t="s">
         <v>140</v>
       </c>
@@ -21650,7 +21640,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="147" spans="1:20" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="147" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A147" s="4" t="s">
         <v>140</v>
       </c>
@@ -21703,7 +21693,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="148" spans="1:20" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="148" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A148" s="3" t="s">
         <v>140</v>
       </c>
@@ -21756,7 +21746,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="149" spans="1:20" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="149" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A149" s="4" t="s">
         <v>141</v>
       </c>
@@ -21809,7 +21799,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="150" spans="1:20" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="150" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A150" s="3" t="s">
         <v>142</v>
       </c>
@@ -21862,7 +21852,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="151" spans="1:20" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="151" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A151" s="4" t="s">
         <v>143</v>
       </c>
@@ -21915,7 +21905,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="152" spans="1:20" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="152" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A152" s="3" t="s">
         <v>144</v>
       </c>
@@ -21968,7 +21958,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="153" spans="1:20" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="153" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A153" s="4" t="s">
         <v>145</v>
       </c>
@@ -22021,7 +22011,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="154" spans="1:20" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="154" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A154" s="3" t="s">
         <v>146</v>
       </c>
@@ -22074,7 +22064,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="155" spans="1:20" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="155" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A155" s="4" t="s">
         <v>147</v>
       </c>
@@ -22127,7 +22117,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="156" spans="1:20" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="156" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A156" s="3" t="s">
         <v>148</v>
       </c>
@@ -22180,7 +22170,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="157" spans="1:20" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="157" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A157" s="4" t="s">
         <v>149</v>
       </c>
@@ -22233,7 +22223,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="158" spans="1:20" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="158" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A158" s="3" t="s">
         <v>149</v>
       </c>
@@ -22286,7 +22276,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="159" spans="1:20" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="159" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A159" s="4" t="s">
         <v>149</v>
       </c>
@@ -22339,7 +22329,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="160" spans="1:20" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="160" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A160" s="3" t="s">
         <v>149</v>
       </c>
@@ -22392,7 +22382,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="161" spans="1:20" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="161" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A161" s="4" t="s">
         <v>149</v>
       </c>
@@ -22445,7 +22435,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="162" spans="1:20" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="162" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A162" s="3" t="s">
         <v>149</v>
       </c>
@@ -22498,7 +22488,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="163" spans="1:20" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="163" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A163" s="4" t="s">
         <v>151</v>
       </c>
@@ -22551,7 +22541,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="164" spans="1:20" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="164" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A164" s="3" t="s">
         <v>152</v>
       </c>
@@ -22604,7 +22594,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="165" spans="1:20" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="165" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A165" s="4" t="s">
         <v>153</v>
       </c>
@@ -22657,7 +22647,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="166" spans="1:20" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="166" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A166" s="3" t="s">
         <v>154</v>
       </c>
@@ -22710,7 +22700,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="167" spans="1:20" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="167" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A167" s="4" t="s">
         <v>155</v>
       </c>
@@ -22763,7 +22753,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="168" spans="1:20" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="168" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A168" s="3" t="s">
         <v>156</v>
       </c>
@@ -22816,7 +22806,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="169" spans="1:20" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="169" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A169" s="4" t="s">
         <v>157</v>
       </c>
@@ -22869,7 +22859,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="170" spans="1:20" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="170" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A170" s="3" t="s">
         <v>158</v>
       </c>
@@ -22922,7 +22912,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="171" spans="1:20" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="171" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A171" s="4" t="s">
         <v>159</v>
       </c>
@@ -22975,7 +22965,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="172" spans="1:20" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="172" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A172" s="3" t="s">
         <v>160</v>
       </c>
@@ -23028,7 +23018,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="173" spans="1:20" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="173" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A173" s="4" t="s">
         <v>161</v>
       </c>
@@ -23081,7 +23071,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="174" spans="1:20" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="174" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A174" s="3" t="s">
         <v>162</v>
       </c>
@@ -23134,7 +23124,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="175" spans="1:20" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="175" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A175" s="4" t="s">
         <v>163</v>
       </c>
@@ -23187,7 +23177,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="176" spans="1:20" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="176" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A176" s="3" t="s">
         <v>164</v>
       </c>
@@ -23240,7 +23230,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="177" spans="1:20" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="177" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A177" s="4" t="s">
         <v>165</v>
       </c>
@@ -23293,7 +23283,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="178" spans="1:20" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="178" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A178" s="3" t="s">
         <v>166</v>
       </c>
@@ -23346,7 +23336,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="179" spans="1:20" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="179" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A179" s="4" t="s">
         <v>167</v>
       </c>
@@ -23399,7 +23389,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="180" spans="1:20" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="180" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A180" s="3" t="s">
         <v>168</v>
       </c>
@@ -23452,7 +23442,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="181" spans="1:20" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="181" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A181" s="4" t="s">
         <v>168</v>
       </c>
@@ -23505,7 +23495,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="182" spans="1:20" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="182" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A182" s="3" t="s">
         <v>168</v>
       </c>
@@ -23558,7 +23548,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="183" spans="1:20" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="183" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A183" s="4" t="s">
         <v>168</v>
       </c>
@@ -23611,7 +23601,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="184" spans="1:20" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="184" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A184" s="3" t="s">
         <v>168</v>
       </c>
@@ -23664,7 +23654,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="185" spans="1:20" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="185" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A185" s="4" t="s">
         <v>168</v>
       </c>
@@ -23717,7 +23707,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="186" spans="1:20" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="186" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A186" s="3" t="s">
         <v>169</v>
       </c>
@@ -23770,7 +23760,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="187" spans="1:20" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="187" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A187" s="4" t="s">
         <v>170</v>
       </c>
@@ -23823,7 +23813,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="188" spans="1:20" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="188" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A188" s="3" t="s">
         <v>171</v>
       </c>
@@ -23876,7 +23866,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="189" spans="1:20" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="189" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A189" s="4" t="s">
         <v>172</v>
       </c>
@@ -23929,7 +23919,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="190" spans="1:20" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="190" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A190" s="3" t="s">
         <v>173</v>
       </c>
@@ -23982,7 +23972,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="191" spans="1:20" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="191" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A191" s="4" t="s">
         <v>174</v>
       </c>
@@ -24035,7 +24025,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="192" spans="1:20" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="192" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A192" s="3" t="s">
         <v>176</v>
       </c>
@@ -24088,7 +24078,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="193" spans="1:20" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="193" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A193" s="4" t="s">
         <v>177</v>
       </c>
@@ -24141,7 +24131,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="194" spans="1:20" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="194" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A194" s="3" t="s">
         <v>178</v>
       </c>
@@ -24194,7 +24184,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="195" spans="1:20" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="195" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A195" s="4" t="s">
         <v>178</v>
       </c>
@@ -24247,7 +24237,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="196" spans="1:20" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="196" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A196" s="3" t="s">
         <v>179</v>
       </c>
@@ -24300,7 +24290,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="197" spans="1:20" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="197" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A197" s="4" t="s">
         <v>180</v>
       </c>
@@ -24353,7 +24343,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="198" spans="1:20" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="198" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A198" s="3" t="s">
         <v>180</v>
       </c>
@@ -24406,7 +24396,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="199" spans="1:20" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="199" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A199" s="4" t="s">
         <v>180</v>
       </c>
@@ -24459,7 +24449,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="200" spans="1:20" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="200" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A200" s="3" t="s">
         <v>180</v>
       </c>
@@ -24512,7 +24502,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="201" spans="1:20" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="201" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A201" s="4" t="s">
         <v>180</v>
       </c>
@@ -24565,7 +24555,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="202" spans="1:20" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="202" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A202" s="3" t="s">
         <v>180</v>
       </c>
@@ -24618,7 +24608,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="203" spans="1:20" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="203" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A203" s="4" t="s">
         <v>180</v>
       </c>
@@ -24671,7 +24661,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="204" spans="1:20" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="204" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A204" s="3" t="s">
         <v>180</v>
       </c>
@@ -24724,7 +24714,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="205" spans="1:20" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="205" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A205" s="4" t="s">
         <v>180</v>
       </c>
@@ -24777,7 +24767,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="206" spans="1:20" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="206" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A206" s="3" t="s">
         <v>180</v>
       </c>
@@ -24830,7 +24820,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="207" spans="1:20" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="207" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A207" s="4" t="s">
         <v>180</v>
       </c>
@@ -24883,7 +24873,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="208" spans="1:20" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="208" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A208" s="3" t="s">
         <v>180</v>
       </c>
@@ -24936,7 +24926,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="209" spans="1:20" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="209" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A209" s="4" t="s">
         <v>180</v>
       </c>
@@ -24989,7 +24979,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="210" spans="1:20" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="210" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A210" s="3" t="s">
         <v>183</v>
       </c>
@@ -25042,7 +25032,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="211" spans="1:20" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="211" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A211" s="4" t="s">
         <v>184</v>
       </c>
@@ -25095,7 +25085,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="212" spans="1:20" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="212" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A212" s="3" t="s">
         <v>185</v>
       </c>
@@ -25148,7 +25138,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="213" spans="1:20" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="213" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A213" s="4" t="s">
         <v>186</v>
       </c>
@@ -25201,7 +25191,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="214" spans="1:20" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="214" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A214" s="3" t="s">
         <v>187</v>
       </c>
@@ -25254,7 +25244,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="215" spans="1:20" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="215" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A215" s="4" t="s">
         <v>188</v>
       </c>
@@ -25307,7 +25297,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="216" spans="1:20" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="216" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A216" s="3" t="s">
         <v>189</v>
       </c>
@@ -25360,7 +25350,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="217" spans="1:20" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="217" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A217" s="4" t="s">
         <v>190</v>
       </c>
@@ -25413,7 +25403,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="218" spans="1:20" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="218" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A218" s="3" t="s">
         <v>191</v>
       </c>
@@ -25466,7 +25456,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="219" spans="1:20" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="219" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A219" s="4" t="s">
         <v>192</v>
       </c>
@@ -25519,7 +25509,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="220" spans="1:20" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="220" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A220" s="3" t="s">
         <v>193</v>
       </c>
@@ -25572,7 +25562,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="221" spans="1:20" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="221" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A221" s="4" t="s">
         <v>194</v>
       </c>
@@ -25625,7 +25615,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="222" spans="1:20" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="222" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A222" s="3" t="s">
         <v>195</v>
       </c>
@@ -25678,7 +25668,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="223" spans="1:20" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="223" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A223" s="4" t="s">
         <v>196</v>
       </c>
@@ -25731,7 +25721,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="224" spans="1:20" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="224" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A224" s="3" t="s">
         <v>197</v>
       </c>
@@ -25784,7 +25774,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="225" spans="1:20" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="225" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A225" s="4" t="s">
         <v>198</v>
       </c>
@@ -25837,7 +25827,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="226" spans="1:20" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="226" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A226" s="3" t="s">
         <v>199</v>
       </c>
@@ -25890,7 +25880,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="227" spans="1:20" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="227" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A227" s="4" t="s">
         <v>200</v>
       </c>
@@ -25943,7 +25933,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="228" spans="1:20" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="228" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A228" s="3" t="s">
         <v>201</v>
       </c>
@@ -25996,7 +25986,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="229" spans="1:20" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="229" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A229" s="4" t="s">
         <v>202</v>
       </c>
@@ -26049,7 +26039,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="230" spans="1:20" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="230" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A230" s="3" t="s">
         <v>203</v>
       </c>
@@ -26102,7 +26092,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="231" spans="1:20" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="231" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A231" s="4" t="s">
         <v>204</v>
       </c>
@@ -26155,7 +26145,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="232" spans="1:20" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="232" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A232" s="3" t="s">
         <v>205</v>
       </c>
@@ -26208,7 +26198,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="233" spans="1:20" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="233" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A233" s="4" t="s">
         <v>206</v>
       </c>
@@ -26261,7 +26251,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="234" spans="1:20" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="234" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A234" s="3" t="s">
         <v>207</v>
       </c>
@@ -26314,7 +26304,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="235" spans="1:20" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="235" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A235" s="4" t="s">
         <v>208</v>
       </c>
@@ -26367,7 +26357,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="236" spans="1:20" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="236" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A236" s="3" t="s">
         <v>209</v>
       </c>
@@ -26420,7 +26410,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="237" spans="1:20" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="237" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A237" s="4" t="s">
         <v>210</v>
       </c>
@@ -26473,7 +26463,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="238" spans="1:20" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="238" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A238" s="3" t="s">
         <v>211</v>
       </c>
@@ -26526,7 +26516,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="239" spans="1:20" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="239" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A239" s="4" t="s">
         <v>212</v>
       </c>
@@ -26579,7 +26569,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="240" spans="1:20" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="240" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A240" s="3" t="s">
         <v>213</v>
       </c>
@@ -26632,7 +26622,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="241" spans="1:20" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="241" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A241" s="4" t="s">
         <v>214</v>
       </c>
@@ -26685,7 +26675,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="242" spans="1:20" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="242" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A242" s="3" t="s">
         <v>215</v>
       </c>
@@ -26738,7 +26728,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="243" spans="1:20" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="243" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A243" s="4" t="s">
         <v>216</v>
       </c>
@@ -26791,7 +26781,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="244" spans="1:20" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="244" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A244" s="3" t="s">
         <v>217</v>
       </c>
@@ -26844,7 +26834,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="245" spans="1:20" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="245" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A245" s="4" t="s">
         <v>218</v>
       </c>
@@ -26897,7 +26887,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="246" spans="1:20" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="246" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A246" s="3" t="s">
         <v>219</v>
       </c>
@@ -26950,7 +26940,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="247" spans="1:20" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="247" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A247" s="4" t="s">
         <v>220</v>
       </c>
@@ -27003,7 +26993,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="248" spans="1:20" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="248" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A248" s="3" t="s">
         <v>221</v>
       </c>
@@ -27056,7 +27046,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="249" spans="1:20" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="249" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A249" s="4" t="s">
         <v>222</v>
       </c>
@@ -27109,7 +27099,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="250" spans="1:20" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="250" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A250" s="3" t="s">
         <v>223</v>
       </c>
@@ -27162,7 +27152,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="251" spans="1:20" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="251" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A251" s="4" t="s">
         <v>224</v>
       </c>
@@ -27215,7 +27205,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="252" spans="1:20" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="252" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A252" s="3" t="s">
         <v>225</v>
       </c>
@@ -27268,7 +27258,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="253" spans="1:20" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="253" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A253" s="4" t="s">
         <v>226</v>
       </c>
@@ -27321,7 +27311,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="254" spans="1:20" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="254" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A254" s="3" t="s">
         <v>227</v>
       </c>
@@ -27374,7 +27364,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="255" spans="1:20" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="255" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A255" s="4" t="s">
         <v>228</v>
       </c>
@@ -27427,7 +27417,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="256" spans="1:20" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="256" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A256" s="3" t="s">
         <v>229</v>
       </c>
@@ -27480,7 +27470,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="257" spans="1:20" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="257" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A257" s="4" t="s">
         <v>230</v>
       </c>
@@ -27533,7 +27523,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="258" spans="1:20" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="258" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A258" s="3" t="s">
         <v>231</v>
       </c>
@@ -27586,7 +27576,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="259" spans="1:20" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="259" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A259" s="4" t="s">
         <v>232</v>
       </c>
@@ -27639,7 +27629,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="260" spans="1:20" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="260" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A260" s="3" t="s">
         <v>233</v>
       </c>
@@ -27692,7 +27682,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="261" spans="1:20" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="261" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A261" s="4" t="s">
         <v>234</v>
       </c>
@@ -27745,7 +27735,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="262" spans="1:20" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="262" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A262" s="3" t="s">
         <v>235</v>
       </c>
@@ -27798,7 +27788,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="263" spans="1:20" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="263" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A263" s="4" t="s">
         <v>236</v>
       </c>
@@ -27851,7 +27841,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="264" spans="1:20" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="264" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A264" s="3" t="s">
         <v>237</v>
       </c>
@@ -27904,7 +27894,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="265" spans="1:20" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="265" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A265" s="4" t="s">
         <v>238</v>
       </c>
@@ -27957,7 +27947,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="266" spans="1:20" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="266" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A266" s="3" t="s">
         <v>239</v>
       </c>
@@ -28010,7 +28000,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="267" spans="1:20" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="267" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A267" s="4" t="s">
         <v>239</v>
       </c>
@@ -28063,7 +28053,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="268" spans="1:20" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="268" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A268" s="3" t="s">
         <v>239</v>
       </c>
@@ -28116,7 +28106,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="269" spans="1:20" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="269" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A269" s="4" t="s">
         <v>239</v>
       </c>
@@ -28169,7 +28159,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="270" spans="1:20" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="270" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A270" s="3" t="s">
         <v>239</v>
       </c>
@@ -28222,7 +28212,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="271" spans="1:20" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="271" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A271" s="4" t="s">
         <v>239</v>
       </c>
@@ -28275,7 +28265,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="272" spans="1:20" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="272" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A272" s="3" t="s">
         <v>239</v>
       </c>
@@ -28328,7 +28318,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="273" spans="1:20" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="273" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A273" s="4" t="s">
         <v>239</v>
       </c>
@@ -28381,7 +28371,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="274" spans="1:20" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="274" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A274" s="3" t="s">
         <v>239</v>
       </c>
@@ -28434,7 +28424,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="275" spans="1:20" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="275" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A275" s="4" t="s">
         <v>239</v>
       </c>
@@ -28487,7 +28477,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="276" spans="1:20" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="276" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A276" s="3" t="s">
         <v>239</v>
       </c>
@@ -28540,7 +28530,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="277" spans="1:20" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="277" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A277" s="4" t="s">
         <v>239</v>
       </c>
@@ -28593,7 +28583,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="278" spans="1:20" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="278" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A278" s="3" t="s">
         <v>239</v>
       </c>
@@ -28646,7 +28636,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="279" spans="1:20" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="279" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A279" s="4" t="s">
         <v>239</v>
       </c>
@@ -28699,7 +28689,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="280" spans="1:20" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="280" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A280" s="3" t="s">
         <v>239</v>
       </c>
@@ -28752,7 +28742,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="281" spans="1:20" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="281" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A281" s="4" t="s">
         <v>239</v>
       </c>
@@ -28805,7 +28795,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="282" spans="1:20" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="282" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A282" s="3" t="s">
         <v>239</v>
       </c>
@@ -28858,7 +28848,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="283" spans="1:20" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="283" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A283" s="4" t="s">
         <v>239</v>
       </c>
@@ -28911,7 +28901,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="284" spans="1:20" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="284" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A284" s="3" t="s">
         <v>239</v>
       </c>
@@ -28964,7 +28954,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="285" spans="1:20" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="285" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A285" s="4" t="s">
         <v>239</v>
       </c>
@@ -29017,7 +29007,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="286" spans="1:20" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="286" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A286" s="3" t="s">
         <v>239</v>
       </c>
@@ -29070,7 +29060,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="287" spans="1:20" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="287" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A287" s="4" t="s">
         <v>239</v>
       </c>
@@ -29102,7 +29092,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="288" spans="1:20" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="288" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A288" s="3" t="s">
         <v>239</v>
       </c>
@@ -29134,7 +29124,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="289" spans="1:10" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="289" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A289" s="4" t="s">
         <v>239</v>
       </c>
@@ -29166,7 +29156,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="290" spans="1:10" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="290" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A290" s="3" t="s">
         <v>239</v>
       </c>
@@ -29198,7 +29188,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="291" spans="1:10" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="291" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A291" s="4" t="s">
         <v>239</v>
       </c>
@@ -29230,7 +29220,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="292" spans="1:10" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="292" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A292" s="3" t="s">
         <v>239</v>
       </c>
@@ -29262,7 +29252,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="293" spans="1:10" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="293" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A293" s="4" t="s">
         <v>242</v>
       </c>
@@ -29294,7 +29284,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="294" spans="1:10" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="294" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A294" s="3" t="s">
         <v>243</v>
       </c>
@@ -29326,7 +29316,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="295" spans="1:10" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="295" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A295" s="4" t="s">
         <v>244</v>
       </c>
@@ -29358,7 +29348,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="296" spans="1:10" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="296" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A296" s="3" t="s">
         <v>245</v>
       </c>
@@ -29390,7 +29380,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="297" spans="1:10" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="297" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A297" s="4" t="s">
         <v>246</v>
       </c>
@@ -29422,7 +29412,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="298" spans="1:10" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="298" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A298" s="3" t="s">
         <v>247</v>
       </c>
@@ -29454,7 +29444,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="299" spans="1:10" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="299" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A299" s="4" t="s">
         <v>248</v>
       </c>
@@ -29486,7 +29476,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="300" spans="1:10" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="300" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A300" s="3" t="s">
         <v>249</v>
       </c>
@@ -29518,7 +29508,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="301" spans="1:10" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="301" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A301" s="4" t="s">
         <v>250</v>
       </c>
@@ -29550,7 +29540,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="302" spans="1:10" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="302" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A302" s="3" t="s">
         <v>251</v>
       </c>
@@ -29582,7 +29572,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="303" spans="1:10" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="303" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A303" s="4" t="s">
         <v>252</v>
       </c>
@@ -29614,7 +29604,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="304" spans="1:10" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="304" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A304" s="3" t="s">
         <v>253</v>
       </c>
@@ -29646,7 +29636,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="305" spans="1:10" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="305" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A305" s="4" t="s">
         <v>254</v>
       </c>
@@ -29678,7 +29668,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="306" spans="1:10" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="306" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A306" s="3" t="s">
         <v>255</v>
       </c>
@@ -29710,7 +29700,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="307" spans="1:10" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="307" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A307" s="4" t="s">
         <v>256</v>
       </c>
@@ -29742,7 +29732,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="308" spans="1:10" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="308" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A308" s="3" t="s">
         <v>257</v>
       </c>
@@ -29774,7 +29764,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="309" spans="1:10" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="309" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A309" s="4" t="s">
         <v>258</v>
       </c>
@@ -29806,7 +29796,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="310" spans="1:10" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="310" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A310" s="3" t="s">
         <v>259</v>
       </c>
@@ -29838,7 +29828,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="311" spans="1:10" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="311" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A311" s="4" t="s">
         <v>260</v>
       </c>
@@ -29870,7 +29860,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="312" spans="1:10" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="312" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A312" s="3" t="s">
         <v>261</v>
       </c>
@@ -29902,7 +29892,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="313" spans="1:10" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="313" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A313" s="4" t="s">
         <v>262</v>
       </c>
@@ -29934,7 +29924,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="314" spans="1:10" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="314" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A314" s="3" t="s">
         <v>263</v>
       </c>
@@ -29966,7 +29956,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="315" spans="1:10" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="315" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A315" s="4" t="s">
         <v>264</v>
       </c>
@@ -29998,7 +29988,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="316" spans="1:10" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="316" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A316" s="3" t="s">
         <v>265</v>
       </c>
@@ -30030,7 +30020,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="317" spans="1:10" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="317" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A317" s="4" t="s">
         <v>266</v>
       </c>
@@ -30062,7 +30052,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="318" spans="1:10" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="318" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A318" s="3" t="s">
         <v>267</v>
       </c>
@@ -30094,7 +30084,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="319" spans="1:10" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="319" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A319" s="4" t="s">
         <v>268</v>
       </c>
@@ -30126,7 +30116,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="320" spans="1:10" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="320" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A320" s="3" t="s">
         <v>269</v>
       </c>
@@ -30158,7 +30148,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="321" spans="1:10" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="321" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A321" s="4" t="s">
         <v>270</v>
       </c>
@@ -30190,7 +30180,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="322" spans="1:10" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="322" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A322" s="3" t="s">
         <v>271</v>
       </c>
@@ -30222,7 +30212,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="323" spans="1:10" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="323" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A323" s="4" t="s">
         <v>272</v>
       </c>
@@ -30254,7 +30244,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="324" spans="1:10" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="324" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A324" s="3" t="s">
         <v>273</v>
       </c>
@@ -30286,7 +30276,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="325" spans="1:10" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="325" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A325" s="4" t="s">
         <v>274</v>
       </c>
@@ -30318,7 +30308,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="326" spans="1:10" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="326" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A326" s="3" t="s">
         <v>275</v>
       </c>
@@ -30350,7 +30340,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="327" spans="1:10" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="327" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A327" s="4" t="s">
         <v>276</v>
       </c>
@@ -30382,7 +30372,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="328" spans="1:10" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="328" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A328" s="3" t="s">
         <v>277</v>
       </c>
@@ -30414,7 +30404,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="329" spans="1:10" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="329" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A329" s="4" t="s">
         <v>278</v>
       </c>
@@ -30446,7 +30436,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="330" spans="1:10" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="330" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A330" s="3" t="s">
         <v>279</v>
       </c>
@@ -30478,7 +30468,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="331" spans="1:10" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="331" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A331" s="4" t="s">
         <v>280</v>
       </c>
@@ -30510,7 +30500,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="332" spans="1:10" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="332" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A332" s="3" t="s">
         <v>281</v>
       </c>
@@ -30542,7 +30532,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="333" spans="1:10" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="333" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A333" s="4" t="s">
         <v>282</v>
       </c>
@@ -30574,7 +30564,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="334" spans="1:10" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="334" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A334" s="3" t="s">
         <v>283</v>
       </c>
@@ -30606,7 +30596,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="335" spans="1:10" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="335" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A335" s="4" t="s">
         <v>284</v>
       </c>
@@ -30638,7 +30628,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="336" spans="1:10" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="336" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A336" s="3" t="s">
         <v>285</v>
       </c>
@@ -30670,7 +30660,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="337" spans="1:10" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="337" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A337" s="4" t="s">
         <v>286</v>
       </c>
@@ -30702,7 +30692,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="338" spans="1:10" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="338" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A338" s="3" t="s">
         <v>287</v>
       </c>
@@ -30734,7 +30724,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="339" spans="1:10" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="339" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A339" s="4" t="s">
         <v>288</v>
       </c>
@@ -30766,7 +30756,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="340" spans="1:10" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="340" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A340" s="3" t="s">
         <v>289</v>
       </c>
@@ -30798,7 +30788,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="341" spans="1:10" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="341" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A341" s="4" t="s">
         <v>290</v>
       </c>
@@ -30830,7 +30820,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="342" spans="1:10" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="342" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A342" s="3" t="s">
         <v>291</v>
       </c>
@@ -30862,7 +30852,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="343" spans="1:10" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="343" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A343" s="4" t="s">
         <v>292</v>
       </c>
@@ -30894,7 +30884,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="344" spans="1:10" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="344" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A344" s="3" t="s">
         <v>293</v>
       </c>
@@ -30926,7 +30916,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="345" spans="1:10" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="345" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A345" s="4" t="s">
         <v>294</v>
       </c>
@@ -30958,7 +30948,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="346" spans="1:10" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="346" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A346" s="3" t="s">
         <v>295</v>
       </c>
@@ -30990,7 +30980,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="347" spans="1:10" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="347" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A347" s="4" t="s">
         <v>296</v>
       </c>
@@ -31022,7 +31012,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="348" spans="1:10" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="348" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A348" s="3" t="s">
         <v>297</v>
       </c>
@@ -31054,7 +31044,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="349" spans="1:10" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="349" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A349" s="4" t="s">
         <v>298</v>
       </c>
@@ -31086,7 +31076,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="350" spans="1:10" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="350" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A350" s="3" t="s">
         <v>299</v>
       </c>
@@ -31118,7 +31108,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="351" spans="1:10" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="351" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A351" s="4" t="s">
         <v>300</v>
       </c>
@@ -31150,7 +31140,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="352" spans="1:10" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="352" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A352" s="3" t="s">
         <v>301</v>
       </c>
@@ -31182,7 +31172,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="353" spans="1:10" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="353" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A353" s="4" t="s">
         <v>302</v>
       </c>
@@ -31214,7 +31204,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="354" spans="1:10" ht="16.5" x14ac:dyDescent="0.6">
+    <row r="354" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A354" s="3" t="s">
         <v>303</v>
       </c>
